--- a/biology/Histoire de la zoologie et de la botanique/Helmut_Freitag/Helmut_Freitag.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Helmut_Freitag/Helmut_Freitag.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Helmut E. Freitag, né en 1932, est un botaniste allemand, curateur à l'université de Cassel. Son herbier est issu de ses collections de spécimens récoltés à l'ouest et au centre de l'Asie, particulièrement d'Afghanistan d'Iran, du Pakistan, du Kazakhstan et de l'Ouzbékistan, ainsi que des régions de la Méditerranée, notamment d'Espagne et de France.
 </t>
@@ -511,17 +523,19 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Éponymes:
-(Apiaceae) Bupleurum freitagii Rech.f.[1]
-(Asteraceae) Anthemis freitagii Iranshahr[2]
-(Chenopodiaceae) Salicornia freitagii Yaprak &amp; Yurdak.[3]
-(Chenopodiaceae) Sarcocornia freitagii S.Steffen, Mucina &amp; G.Kadereit[4]
-(Lamiaceae) Phlomoides freitagii (Rech.f.) Kamelin &amp; Makhm.[5]
-(Leguminosae) Astragalus freitagii I.Deml[6]
-(Primulaceae) Dionysia freitagii Wendelbo[7]
-(Rosaceae) Rosa freitagii J.Zieliński[8]</t>
+(Apiaceae) Bupleurum freitagii Rech.f.
+(Asteraceae) Anthemis freitagii Iranshahr
+(Chenopodiaceae) Salicornia freitagii Yaprak &amp; Yurdak.
+(Chenopodiaceae) Sarcocornia freitagii S.Steffen, Mucina &amp; G.Kadereit
+(Lamiaceae) Phlomoides freitagii (Rech.f.) Kamelin &amp; Makhm.
+(Leguminosae) Astragalus freitagii I.Deml
+(Primulaceae) Dionysia freitagii Wendelbo
+(Rosaceae) Rosa freitagii J.Zieliński</t>
         </is>
       </c>
     </row>
